--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="565">
   <si>
     <t>Name</t>
   </si>
@@ -87,7 +87,7 @@
     <t>Demolitions Guy</t>
   </si>
   <si>
-    <t>Użyj: W swojej turze możesz dodać +1 do wyniku na jednej z 🎲</t>
+    <t>Użyj: Możesz dodać +1 do wyniku na jednej z 🎲</t>
   </si>
   <si>
     <t>+2 Memory%n %n+ 2 Initial 💡%n %nPick🔓🔊 ⇒%nPick II🔓🔓🔊</t>
@@ -102,10 +102,7 @@
     <t>Trofeum%n🌀🌀🌀</t>
   </si>
   <si>
-    <t>Użyj: Spójrz na dwie karty z wierzchu talii Jaskini. Połóż jedną na wierzch a drugą na spód talii.</t>
-  </si>
-  <si>
-    <t> </t>
+    <t>Użyj: Spójrz na dwie karty z wierzchu talii Jaskini. Połóż jedną na wierzch, a drugą na spód talii</t>
   </si>
   <si>
     <t>Leśna żabka</t>
@@ -114,7 +111,7 @@
     <t>Trofeum%n🎯🌀</t>
   </si>
   <si>
-    <t>Użyj: Odrzuć jednego potwora na stos zużytych</t>
+    <t>Użyj: Przenieś jednego Potwora z Toru Potworów do Pieczary</t>
   </si>
   <si>
     <t>Żmija</t>
@@ -132,7 +129,7 @@
     <t>Operative</t>
   </si>
   <si>
-    <t>Użyj: Odrzuć jedną z twoich kart ran.</t>
+    <t>Użyj: Ulecz jednego z twoich Potworów, aby mógł wrócić do Jaskini</t>
   </si>
   <si>
     <t>+2 Memory%n %n+ 2 Initial 💡%n %n+Bash👊👊🔊</t>
@@ -147,7 +144,7 @@
     <t>Trofeum%n🎯🎯🎯</t>
   </si>
   <si>
-    <t>Użyj: Wymień się jednym potworem (innym niż Jednorożec) z dowolnym graczem lub z torem potworów</t>
+    <t>Użyj: Wymień się jednym Potworem (innym niż Jednorożec i Pegaz) z dowolnym graczem lub z Torem Potworów</t>
   </si>
   <si>
     <t>Chochlik</t>
@@ -156,7 +153,7 @@
     <t>Trofeum%n⚔🎯</t>
   </si>
   <si>
-    <t>Użyj: Dobierz kartę z talii Przedmiotów</t>
+    <t>Użyj: Dobierz kartę z talii Cyfr</t>
   </si>
   <si>
     <t>Salamandra</t>
@@ -174,7 +171,7 @@
     <t>Mastermind</t>
   </si>
   <si>
-    <t>Użyj: Wybierz potwora z Toru i wsadź go na spód talii. Następnie uzupełnij jego miejsce innym</t>
+    <t>Użyj: Wybierz Potwora z Toru i odłóż go na spód talii. Następnie uzupełnij jego miejsce pierwszym z góry talii</t>
   </si>
   <si>
     <t>+3 Memory%n+1 Initial 💡%n %nWalk🔊➜ ⇒%nDash🔊➜➜%n %nHeistate 💡⇒%nStudy💡💡</t>
@@ -189,7 +186,7 @@
     <t>Trofeum%n⚔⚔</t>
   </si>
   <si>
-    <t>Użyj: W swojej turze możesz odjąć -1 do wyniku na jednej z 🎲</t>
+    <t>Użyj: Możesz odjąć -1 do wyniku na jednej z 🎲</t>
   </si>
   <si>
     <t>Kałamarnica</t>
@@ -216,7 +213,7 @@
     <t>Black Hat</t>
   </si>
   <si>
-    <t>Użyj: Spójrz na cztery karty z wierzchu talii Jaskini. Połóż dwie na wierzch a dwie na spód talii.</t>
+    <t>Użyj: Spójrz na cztery karty z wierzchu talii Jaskini. Połóż dwie na wierzch, a dwie na spód talii</t>
   </si>
   <si>
     <t>+4 Memory%n+1 Initial 💡%n %nStride🔊➜🔍 ⇒%nRun🔊🔊➜➜</t>
@@ -231,13 +228,13 @@
     <t>Trofeum%n🎯🎯🌀🌀</t>
   </si>
   <si>
-    <t>Użyj: Odrzuć dwa potwory na stos zużytych</t>
+    <t>Użyj: Przenieś dwa Potwory z Toru Potworów do Pieczary</t>
   </si>
   <si>
     <t>Kobra</t>
   </si>
   <si>
-    <t>Użyj: Odrzuć jedną kartę ran dowolnego gracza.</t>
+    <t>Użyj: Ulecz jednego z Potworów dowolnego gracza, aby mógł wrócić do Jaskini</t>
   </si>
   <si>
     <t>Pegaz</t>
@@ -255,7 +252,7 @@
     <t>Grease Man</t>
   </si>
   <si>
-    <t>Użyj: Wymień się dowolną ilością potworów (innych niż Jednorożec) z dowolnym graczem lub z torem potworów</t>
+    <t>Użyj: Wymień się dowolną ilością Potworów (innych niż Jednorożec i Pegaz) z dowolnym graczem lub z Torem Potworów</t>
   </si>
   <si>
     <t>+1 Memory%n+4 Initial 💡%n %n+SEWER CRAWL</t>
@@ -267,7 +264,7 @@
     <t>Trofeum%n⚔⚔🎯🎯</t>
   </si>
   <si>
-    <t>Użyj: Ty i dowolny wybrany gracz dobieracie kartę z talii Przedmiotów</t>
+    <t>Użyj: Dowolny wybrany gracz dobiera kartę z talii Cyfr</t>
   </si>
   <si>
     <t>Wiwerna</t>
@@ -276,7 +273,7 @@
     <t>Trofeum%n⚔⚔⚔⚔</t>
   </si>
   <si>
-    <t>Użyj: Wybierz dwa potwory z Toru i wsadź je na spód talii. Następnie uzupełnij ich miejsce innym</t>
+    <t>Użyj: Wybierz dwa potwory z Toru i odłóż je na spód talii. Następnie uzupełnij ich miejsce dwoma z góry talii</t>
   </si>
   <si>
     <t>Mantikora</t>
@@ -315,7 +312,7 @@
     <t>Trofeum%n🌀🌀🌀🌀🌀</t>
   </si>
   <si>
-    <t>Raz na turę: Spójrz na dwie karty z wierzchu talii Jaskini. Połóż jedną na wierzch a drugą na spód talii.</t>
+    <t>Raz na turę: Spójrz na dwie karty z wierzchu talii Jaskini. Połóż jedną na wierzch, a drugą na spód talii</t>
   </si>
   <si>
     <t>Król Ropuch</t>
@@ -333,7 +330,7 @@
     <t>Thief</t>
   </si>
   <si>
-    <t>Raz na turę: Złap potwora z toru potworów. Odrzuć jednego potwora z kolekcji</t>
+    <t>Raz na turę: Złap Potwora z Toru Potworów. Przenieś jednego Potwora z kolekcji do Pieczary</t>
   </si>
   <si>
     <t>+1 Memory%n+1 Initial 💡%n %nLARCENIST⇒%nSWINDLER%n %n+TOSS LOOT</t>
@@ -348,7 +345,7 @@
     <t>Trofeum%n🎯🎯🎯🌀⚔</t>
   </si>
   <si>
-    <t>Raz na turę: Odrzuć jedną kartę ran dowolnego gracza.</t>
+    <t>Raz na turę: Ulecz jednego z Potworów dowolnego gracza, aby mógł wrócić do Jaskini</t>
   </si>
   <si>
     <t>Centaur</t>
@@ -375,7 +372,7 @@
     <t>Tinkerer</t>
   </si>
   <si>
-    <t>Raz na turę: Dowolny gracz dobiera kartę z talii Przedmiotów</t>
+    <t>Raz na turę: Dowolny gracz dobiera kartę z talii Cyfr</t>
   </si>
   <si>
     <t>+2 Memory%n+ 1 Initial 💡%n %nWalk &amp; Smash⇒%nDisable📷🔊➜%n %n+Loop Footage</t>
@@ -390,7 +387,7 @@
     <t>Trofeum%n⚔⚔⚔⚔⚔</t>
   </si>
   <si>
-    <t>Raz na turę: Wybierz potwora z Toru i wsadź go na spód talii. Następnie uzupełnij jego miejsce innym</t>
+    <t>Raz na turę: Wybierz Potwora z Toru i odłóż go na spód talii. Następnie uzupełnij jego miejsce pierwszym z góry talii</t>
   </si>
   <si>
     <t>Sfinks</t>
@@ -789,7 +786,7 @@
     <t>Caught in a Reflection</t>
   </si>
   <si>
-    <t>The guard monitoring the cameras sees movement in a reflection and looks a little closer. </t>
+    <t>The guard monitoring the cameras sees movement in a reflection and looks a little closer.</t>
   </si>
   <si>
     <t>Raise ⚠ for each Live Camera adjacent to a character.</t>
@@ -804,7 +801,7 @@
     <t>Guards are getting suspcious of movement.</t>
   </si>
   <si>
-    <t>Raise ⚠ for each Character adjacent to an Unsubuded Guard </t>
+    <t>Raise ⚠ for each Character adjacent to an Unsubuded Guard</t>
   </si>
   <si>
     <t>figure_alerts_adj_guard.svg</t>
@@ -921,7 +918,7 @@
     <t>An automatic system initiates, closing the next two lockdown gates.</t>
   </si>
   <si>
-    <t>Close the next two Gates, starting with "A". Remove the tile. If a character is on it, they are immediately Busted. </t>
+    <t>Close the next two Gates, starting with "A". Remove the tile. If a character is on it, they are immediately Busted.</t>
   </si>
   <si>
     <t>figure_alerts_lockdown.svg</t>
@@ -948,7 +945,7 @@
     <t>20c</t>
   </si>
   <si>
-    <t>Close the next Gate, starting with "A". Remove the tile. If a character is on it, they are immediately Busted. </t>
+    <t>Close the next Gate, starting with "A". Remove the tile. If a character is on it, they are immediately Busted.</t>
   </si>
   <si>
     <t>Reinforcements</t>
@@ -1656,7 +1653,7 @@
     <t>INTERCEPT%nFor 💡💡💡, may prevent a security event that places a guard on a player's space</t>
   </si>
   <si>
-    <t>I CAN HAZ TEH CODES?%nMay spend 💡💡 to prevent Power Cycle event </t>
+    <t>I CAN HAZ TEH CODES?%nMay spend 💡💡 to prevent Power Cycle event</t>
   </si>
   <si>
     <t>I CAN HEARTBLEED%nIf outdoors, may spend 💡 to 🔍</t>
@@ -1707,7 +1704,7 @@
     <t>Double Security Tile</t>
   </si>
   <si>
-    <t>Just put more security chits on it and handle them. So a second security-backed chit. </t>
+    <t>Just put more security chits on it and handle them. So a second security-backed chit.</t>
   </si>
   <si>
     <t>Known Double-Guards</t>
@@ -1735,7 +1732,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1761,6 +1758,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2015,7 +2019,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2043,7 +2047,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2059,7 +2063,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2083,7 +2087,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2099,7 +2103,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2155,7 +2159,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2183,7 +2187,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2335,7 +2339,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2363,7 +2367,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2445,9 +2449,9 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z65536"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K25"/>
     </sheetView>
   </sheetViews>
@@ -2576,7 +2580,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -2604,9 +2608,7 @@
       <c r="K3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -2622,9 +2624,9 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>14</v>
@@ -2642,17 +2644,15 @@
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L4" s="14"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -2668,12 +2668,12 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="C5" s="16" t="n">
         <v>2</v>
@@ -2688,23 +2688,23 @@
         <v>15</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
@@ -2720,12 +2720,12 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>2</v>
@@ -2740,17 +2740,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="L6" s="18"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
@@ -2766,12 +2764,12 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="21" t="n">
         <v>5</v>
@@ -2786,17 +2784,15 @@
         <v>15</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>25</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L7" s="24"/>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -2812,12 +2808,12 @@
       <c r="Y7" s="22"/>
       <c r="Z7" s="22"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>3</v>
@@ -2832,23 +2828,23 @@
         <v>15</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="L8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="M8" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
@@ -2864,12 +2860,12 @@
       <c r="Y8" s="28"/>
       <c r="Z8" s="28"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>3</v>
@@ -2884,17 +2880,15 @@
         <v>15</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L9" s="28"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
@@ -2910,12 +2904,12 @@
       <c r="Y9" s="29"/>
       <c r="Z9" s="29"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>1</v>
@@ -2927,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>23</v>
@@ -2936,11 +2930,9 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="L10" s="30"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -2956,12 +2948,12 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>1</v>
@@ -2973,26 +2965,26 @@
         <v>24</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="M11" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>64</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
@@ -3008,12 +3000,12 @@
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="11" t="n">
         <v>4</v>
@@ -3025,20 +3017,18 @@
         <v>28</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="L12" s="14"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -3054,12 +3044,12 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16" t="n">
         <v>2</v>
@@ -3071,20 +3061,18 @@
         <v>35</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="L13" s="18"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
@@ -3100,12 +3088,12 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="C14" s="16" t="n">
         <v>2</v>
@@ -3117,23 +3105,23 @@
         <v>40</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="L14" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="18" t="str">
         <f aca="false">"+4 Memory%n %nDART⇒%nBOLT"</f>
@@ -3153,12 +3141,12 @@
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="21" t="n">
         <v>5</v>
@@ -3170,20 +3158,18 @@
         <v>48</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>25</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="L15" s="24"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -3199,12 +3185,12 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="26" t="n">
         <v>3</v>
@@ -3216,20 +3202,18 @@
         <v>56</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>25</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L16" s="28"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
@@ -3245,12 +3229,12 @@
       <c r="Y16" s="29"/>
       <c r="Z16" s="29"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>84</v>
       </c>
       <c r="C17" s="26" t="n">
         <v>3</v>
@@ -3262,23 +3246,23 @@
         <v>72</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="K17" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="L17" s="28" t="s">
         <v>87</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="28" t="str">
         <f aca="false">"+2 Memory%n %n+TUNNEL"</f>
@@ -3298,12 +3282,12 @@
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>1</v>
@@ -3315,20 +3299,18 @@
         <v>15</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>25</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="L18" s="32"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -3344,12 +3326,12 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>1</v>
@@ -3361,20 +3343,18 @@
         <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="32" t="s">
-        <v>25</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L19" s="32"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -3390,12 +3370,12 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="C20" s="11" t="n">
         <v>4</v>
@@ -3407,26 +3387,26 @@
         <v>28</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="K20" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="L20" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="M20" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
@@ -3442,12 +3422,12 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="16" t="n">
         <v>2</v>
@@ -3459,20 +3439,18 @@
         <v>32</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="L21" s="18"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3488,12 +3466,12 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="16" t="n">
         <v>2</v>
@@ -3505,20 +3483,18 @@
         <v>36</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="L22" s="18"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
@@ -3534,12 +3510,12 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="C23" s="21" t="n">
         <v>5</v>
@@ -3551,26 +3527,26 @@
         <v>42</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="K23" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="L23" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="M23" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
@@ -3586,12 +3562,12 @@
       <c r="Y23" s="24"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>3</v>
@@ -3603,16 +3579,16 @@
         <v>56</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -3630,12 +3606,12 @@
       <c r="Y24" s="29"/>
       <c r="Z24" s="29"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>3</v>
@@ -3647,16 +3623,16 @@
         <v>64</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -3674,7 +3650,6 @@
       <c r="Y25" s="29"/>
       <c r="Z25" s="29"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3707,10 +3682,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>545</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>546</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -3739,10 +3714,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>547</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>548</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3772,7 +3747,7 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
       <c r="B3" s="93" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3802,7 +3777,7 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3832,7 +3807,7 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -3862,7 +3837,7 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3892,7 +3867,7 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3951,10 +3926,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>554</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>555</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -3983,10 +3958,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>556</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>557</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4015,10 +3990,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -4047,10 +4022,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>561</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -4079,10 +4054,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>562</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>563</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -4111,10 +4086,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>565</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4216,49 +4191,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="O1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="36" t="s">
         <v>136</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>137</v>
       </c>
       <c r="Q1" s="34" t="n">
         <v>1</v>
@@ -4279,55 +4254,55 @@
         <v>6</v>
       </c>
       <c r="W1" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AA1" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AI1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>153</v>
-      </c>
-      <c r="AM1" s="40" t="s">
-        <v>154</v>
       </c>
       <c r="AN1" s="41"/>
       <c r="AO1" s="41"/>
@@ -4342,7 +4317,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="43" t="n">
         <v>2</v>
@@ -4351,45 +4326,45 @@
         <v>1</v>
       </c>
       <c r="D2" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>156</v>
       </c>
       <c r="F2" s="46" t="str">
         <f aca="false">VLOOKUP(E2,Actions,2,0)</f>
         <v>👊🔊🔊➜</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" s="42" t="str">
         <f aca="false">VLOOKUP(G2,Actions,2,0)</f>
         <v>📷🔊🔊➜</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J2" s="46" t="str">
         <f aca="false">VLOOKUP(I2,Actions,2,0)</f>
         <v>🔍🔍</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L2" s="42" t="str">
         <f aca="false">VLOOKUP(K2,Actions,2,0)</f>
         <v>👊🔊🔊➜</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N2" s="46" t="str">
         <f aca="false">VLOOKUP(M2,Actions,2,0)</f>
         <v>📷🔊🔊➜</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P2" s="46" t="str">
         <f aca="false">VLOOKUP(O2,Actions,2,0)</f>
@@ -4424,14 +4399,14 @@
         <v>Punch%n👊🔊🔊➜/</v>
       </c>
       <c r="X2" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y2" s="42" t="str">
         <f aca="false">IF(X2="(none)","",VLOOKUP(X2,$A$2:$W$19,23,0))</f>
         <v>Flip%n👊🔊➜/</v>
       </c>
       <c r="Z2" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA2" s="42" t="str">
         <f aca="false">IF(Z2="(none)","",VLOOKUP(Z2,$A$2:$W$19,23,0))</f>
@@ -4470,16 +4445,16 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK2" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AL2" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AM2" s="44" t="s">
         <v>164</v>
-      </c>
-      <c r="AM2" s="44" t="s">
-        <v>165</v>
       </c>
       <c r="AN2" s="48"/>
       <c r="AO2" s="48"/>
@@ -4494,7 +4469,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="50" t="n">
         <v>2</v>
@@ -4503,45 +4478,45 @@
         <v>1</v>
       </c>
       <c r="D3" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>166</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>167</v>
       </c>
       <c r="F3" s="52" t="str">
         <f aca="false">VLOOKUP(E3,Actions,2,0)</f>
         <v>🔊🔊➜➜</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="49" t="str">
         <f aca="false">VLOOKUP(G3,Actions,2,0)</f>
         <v>🔓🔊</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J3" s="52" t="str">
         <f aca="false">VLOOKUP(I3,Actions,2,0)</f>
         <v>🔊🔊➜➜</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L3" s="49" t="str">
         <f aca="false">VLOOKUP(K3,Actions,2,0)</f>
         <v>💡💡</v>
       </c>
       <c r="M3" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N3" s="52" t="str">
         <f aca="false">VLOOKUP(M3,Actions,2,0)</f>
         <v>🔊🔊➜➜➜</v>
       </c>
       <c r="O3" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P3" s="52" t="str">
         <f aca="false">VLOOKUP(O3,Actions,2,0)</f>
@@ -4576,14 +4551,14 @@
         <v>Run%n🔊🔊➜➜/</v>
       </c>
       <c r="X3" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y3" s="49" t="str">
         <f aca="false">IF(X3="(none)","",VLOOKUP(X3,$A$2:$W$19,23,0))</f>
         <v>Dash%n🔊➜➜/</v>
       </c>
       <c r="Z3" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA3" s="49" t="str">
         <f aca="false">IF(Z3="(none)","",VLOOKUP(Z3,$A$2:$W$19,23,0))</f>
@@ -4622,16 +4597,16 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK3" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL3" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="AK3" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3" s="54" t="s">
+      <c r="AM3" s="54" t="s">
         <v>175</v>
-      </c>
-      <c r="AM3" s="54" t="s">
-        <v>176</v>
       </c>
       <c r="AN3" s="48"/>
       <c r="AO3" s="48"/>
@@ -4646,7 +4621,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="56" t="n">
         <v>2</v>
@@ -4655,45 +4630,45 @@
         <v>1</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="58" t="str">
         <f aca="false">VLOOKUP(E4,Actions,2,0)</f>
         <v>🔍🔍</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="55" t="str">
         <f aca="false">VLOOKUP(G4,Actions,2,0)</f>
         <v>🔓👊🔊🔊➜</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J4" s="58" t="str">
         <f aca="false">VLOOKUP(I4,Actions,2,0)</f>
         <v>🔓📷🔊🔊➜</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L4" s="55" t="str">
         <f aca="false">VLOOKUP(K4,Actions,2,0)</f>
         <v>👊📷🔊🔊➜</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N4" s="58" t="str">
         <f aca="false">VLOOKUP(M4,Actions,2,0)</f>
         <v>💰🔊</v>
       </c>
       <c r="O4" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P4" s="58" t="str">
         <f aca="false">VLOOKUP(O4,Actions,2,0)</f>
@@ -4728,14 +4703,14 @@
         <v>Discover%n🔍🔍/</v>
       </c>
       <c r="X4" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y4" s="55" t="str">
         <f aca="false">IF(X4="(none)","",VLOOKUP(X4,$A$2:$W$19,23,0))</f>
         <v>Study%n💡💡/</v>
       </c>
       <c r="Z4" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA4" s="55" t="str">
         <f aca="false">IF(Z4="(none)","",VLOOKUP(Z4,$A$2:$W$19,23,0))</f>
@@ -4774,16 +4749,16 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK4" s="60" t="s">
         <v>4</v>
       </c>
       <c r="AL4" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM4" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN4" s="48"/>
       <c r="AO4" s="48"/>
@@ -4798,7 +4773,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="62" t="n">
         <v>2</v>
@@ -4807,45 +4782,45 @@
         <v>1</v>
       </c>
       <c r="D5" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="63" t="s">
         <v>186</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>187</v>
       </c>
       <c r="F5" s="64" t="str">
         <f aca="false">VLOOKUP(E5,Actions,2,0)</f>
         <v>👊🔊</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" s="61" t="str">
         <f aca="false">VLOOKUP(G5,Actions,2,0)</f>
         <v>🔊🔊➜➜</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J5" s="64" t="str">
         <f aca="false">VLOOKUP(I5,Actions,2,0)</f>
         <v>👊👊🔊</v>
       </c>
       <c r="K5" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L5" s="61" t="str">
         <f aca="false">VLOOKUP(K5,Actions,2,0)</f>
         <v>🔊🔊➜➜</v>
       </c>
       <c r="M5" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N5" s="64" t="str">
         <f aca="false">VLOOKUP(M5,Actions,2,0)</f>
         <v>👊🔊</v>
       </c>
       <c r="O5" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P5" s="64" t="str">
         <f aca="false">VLOOKUP(O5,Actions,2,0)</f>
@@ -4880,14 +4855,14 @@
         <v>Hit%n👊🔊/</v>
       </c>
       <c r="X5" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y5" s="61" t="str">
         <f aca="false">IF(X5="(none)","",VLOOKUP(X5,$A$2:$W$19,23,0))</f>
         <v>Bash%n👊👊🔊/</v>
       </c>
       <c r="Z5" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA5" s="61" t="str">
         <f aca="false">IF(Z5="(none)","",VLOOKUP(Z5,$A$2:$W$19,23,0))</f>
@@ -4926,16 +4901,16 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK5" s="66" t="s">
         <v>191</v>
-      </c>
-      <c r="AK5" s="66" t="s">
-        <v>192</v>
       </c>
       <c r="AL5" s="66" t="s">
         <v>4</v>
       </c>
       <c r="AM5" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN5" s="48"/>
       <c r="AO5" s="48"/>
@@ -4950,7 +4925,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="68" t="n">
         <v>2</v>
@@ -4959,45 +4934,45 @@
         <v>1</v>
       </c>
       <c r="D6" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="69" t="s">
         <v>193</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>194</v>
       </c>
       <c r="F6" s="70" t="str">
         <f aca="false">VLOOKUP(E6,Actions,2,0)</f>
         <v>🔓🔓🔊🔊➜</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="67" t="str">
         <f aca="false">VLOOKUP(G6,Actions,2,0)</f>
         <v>💡💡</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J6" s="70" t="str">
         <f aca="false">VLOOKUP(I6,Actions,2,0)</f>
         <v>🔓🔊</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L6" s="67" t="str">
         <f aca="false">VLOOKUP(K6,Actions,2,0)</f>
         <v>🔊🔊➜➜➜</v>
       </c>
       <c r="M6" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N6" s="70" t="str">
         <f aca="false">VLOOKUP(M6,Actions,2,0)</f>
         <v>🔊🔊➜➜</v>
       </c>
       <c r="O6" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P6" s="70" t="str">
         <f aca="false">VLOOKUP(O6,Actions,2,0)</f>
@@ -5032,14 +5007,14 @@
         <v>Bump%n🔓🔓🔊🔊➜/</v>
       </c>
       <c r="X6" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y6" s="67" t="str">
         <f aca="false">IF(X6="(none)","",VLOOKUP(X6,$A$2:$W$19,23,0))</f>
         <v>Rake%n🔓🔓🔊➜/</v>
       </c>
       <c r="Z6" s="68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA6" s="67" t="str">
         <f aca="false">IF(Z6="(none)","",VLOOKUP(Z6,$A$2:$W$19,23,0))</f>
@@ -5078,16 +5053,16 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK6" s="72" t="s">
         <v>197</v>
-      </c>
-      <c r="AK6" s="72" t="s">
-        <v>198</v>
       </c>
       <c r="AL6" s="72" t="s">
         <v>4</v>
       </c>
       <c r="AM6" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN6" s="48"/>
       <c r="AO6" s="48"/>
@@ -5102,7 +5077,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="74" t="n">
         <v>2</v>
@@ -5111,45 +5086,45 @@
         <v>1</v>
       </c>
       <c r="D7" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="75" t="s">
         <v>199</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>200</v>
       </c>
       <c r="F7" s="76" t="str">
         <f aca="false">VLOOKUP(E7,Actions,2,0)</f>
         <v>📷📷🔊🔊➜</v>
       </c>
       <c r="G7" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="73" t="str">
         <f aca="false">VLOOKUP(G7,Actions,2,0)</f>
         <v>🔊🔊➜➜➜</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J7" s="76" t="str">
         <f aca="false">VLOOKUP(I7,Actions,2,0)</f>
         <v>📷🔊🔊➜</v>
       </c>
       <c r="K7" s="77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L7" s="73" t="str">
         <f aca="false">VLOOKUP(K7,Actions,2,0)</f>
         <v>🔍🔍</v>
       </c>
       <c r="M7" s="75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N7" s="76" t="str">
         <f aca="false">VLOOKUP(M7,Actions,2,0)</f>
         <v>💡💡💡🔊</v>
       </c>
       <c r="O7" s="77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P7" s="76" t="str">
         <f aca="false">VLOOKUP(O7,Actions,2,0)</f>
@@ -5184,14 +5159,14 @@
         <v>Shatter%n📷📷🔊🔊➜/</v>
       </c>
       <c r="X7" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y7" s="73" t="str">
         <f aca="false">IF(X7="(none)","",VLOOKUP(X7,$A$2:$W$19,23,0))</f>
         <v>Unplug%n📷📷🔊➜/</v>
       </c>
       <c r="Z7" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA7" s="73" t="str">
         <f aca="false">IF(Z7="(none)","",VLOOKUP(Z7,$A$2:$W$19,23,0))</f>
@@ -5230,16 +5205,16 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK7" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="AK7" s="78" t="s">
+      <c r="AL7" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="AL7" s="78" t="s">
-        <v>205</v>
-      </c>
       <c r="AM7" s="78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN7" s="48"/>
       <c r="AO7" s="48"/>
@@ -5254,7 +5229,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="43" t="n">
         <v>2</v>
@@ -5263,45 +5238,45 @@
         <v>2</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" s="46" t="str">
         <f aca="false">VLOOKUP(E8,Actions,2,0)</f>
         <v>👊🔊➜</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H8" s="42" t="str">
         <f aca="false">VLOOKUP(G8,Actions,2,0)</f>
         <v>📷🔊➜</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J8" s="46" t="str">
         <f aca="false">VLOOKUP(I8,Actions,2,0)</f>
         <v>💡💡</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L8" s="42" t="str">
         <f aca="false">VLOOKUP(K8,Actions,2,0)</f>
         <v>👊🔊🔊➜</v>
       </c>
       <c r="M8" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N8" s="46" t="str">
         <f aca="false">VLOOKUP(M8,Actions,2,0)</f>
         <v>📷🔊🔊➜</v>
       </c>
       <c r="O8" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P8" s="46" t="str">
         <f aca="false">VLOOKUP(O8,Actions,2,0)</f>
@@ -5336,18 +5311,22 @@
         <v>Flip%n👊🔊➜/</v>
       </c>
       <c r="X8" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y8" s="42" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y8" s="42" t="inlineStr">
         <f aca="false">IF(X8="(none)","",VLOOKUP(X8,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z8" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA8" s="42" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA8" s="42" t="inlineStr">
         <f aca="false">IF(Z8="(none)","",VLOOKUP(Z8,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB8" s="43" t="n">
         <f aca="false">(LEN($W8)-LEN(SUBSTITUTE($W8,AB$1,"")))/LEN(AB$1)</f>
@@ -5382,16 +5361,16 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK8" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="AK8" s="44" t="s">
+      <c r="AL8" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="AL8" s="44" t="s">
-        <v>212</v>
-      </c>
       <c r="AM8" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN8" s="48"/>
       <c r="AO8" s="48"/>
@@ -5406,7 +5385,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="43" t="n">
         <v>2</v>
@@ -5415,45 +5394,45 @@
         <v>2</v>
       </c>
       <c r="D9" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>155</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>156</v>
       </c>
       <c r="F9" s="46" t="str">
         <f aca="false">VLOOKUP(E9,Actions,2,0)</f>
         <v>👊🔊🔊➜</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H9" s="42" t="str">
         <f aca="false">VLOOKUP(G9,Actions,2,0)</f>
         <v>📷📷🔊➜</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J9" s="46" t="str">
         <f aca="false">VLOOKUP(I9,Actions,2,0)</f>
         <v>🔍🔓🔊</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L9" s="42" t="str">
         <f aca="false">VLOOKUP(K9,Actions,2,0)</f>
         <v>👊🔊➜</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N9" s="46" t="str">
         <f aca="false">VLOOKUP(M9,Actions,2,0)</f>
         <v>📷🔊➜</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P9" s="46" t="str">
         <f aca="false">VLOOKUP(O9,Actions,2,0)</f>
@@ -5488,18 +5467,22 @@
         <v>Punch%n👊🔊🔊➜/</v>
       </c>
       <c r="X9" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y9" s="42" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y9" s="42" t="inlineStr">
         <f aca="false">IF(X9="(none)","",VLOOKUP(X9,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z9" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA9" s="42" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA9" s="42" t="inlineStr">
         <f aca="false">IF(Z9="(none)","",VLOOKUP(Z9,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB9" s="43" t="n">
         <f aca="false">(LEN($W9)-LEN(SUBSTITUTE($W9,AB$1,"")))/LEN(AB$1)</f>
@@ -5534,16 +5517,16 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK9" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL9" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="AK9" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL9" s="44" t="s">
+      <c r="AM9" s="44" t="s">
         <v>216</v>
-      </c>
-      <c r="AM9" s="44" t="s">
-        <v>217</v>
       </c>
       <c r="AN9" s="48"/>
       <c r="AO9" s="48"/>
@@ -5558,7 +5541,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="50" t="n">
         <v>2</v>
@@ -5567,45 +5550,45 @@
         <v>2</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F10" s="52" t="str">
         <f aca="false">VLOOKUP(E10,Actions,2,0)</f>
         <v>🔊➜➜</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="49" t="str">
         <f aca="false">VLOOKUP(G10,Actions,2,0)</f>
         <v>🔓🔊</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J10" s="52" t="str">
         <f aca="false">VLOOKUP(I10,Actions,2,0)</f>
         <v>👊➜</v>
       </c>
       <c r="K10" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L10" s="49" t="str">
         <f aca="false">VLOOKUP(K10,Actions,2,0)</f>
         <v>💡💡</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N10" s="52" t="str">
         <f aca="false">VLOOKUP(M10,Actions,2,0)</f>
         <v>🔊🔊➜➜➜</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P10" s="52" t="str">
         <f aca="false">VLOOKUP(O10,Actions,2,0)</f>
@@ -5640,18 +5623,22 @@
         <v>Dash%n🔊➜➜/</v>
       </c>
       <c r="X10" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y10" s="49" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y10" s="49" t="inlineStr">
         <f aca="false">IF(X10="(none)","",VLOOKUP(X10,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z10" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA10" s="49" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA10" s="49" t="inlineStr">
         <f aca="false">IF(Z10="(none)","",VLOOKUP(Z10,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB10" s="43" t="n">
         <f aca="false">(LEN($W10)-LEN(SUBSTITUTE($W10,AB$1,"")))/LEN(AB$1)</f>
@@ -5686,16 +5673,16 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="AK10" s="79" t="s">
-        <v>221</v>
-      </c>
       <c r="AL10" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM10" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN10" s="48"/>
       <c r="AO10" s="48"/>
@@ -5710,7 +5697,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" s="50" t="n">
         <v>2</v>
@@ -5719,45 +5706,45 @@
         <v>2</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F11" s="52" t="str">
         <f aca="false">VLOOKUP(E11,Actions,2,0)</f>
         <v>🔊➜➜</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H11" s="49" t="str">
         <f aca="false">VLOOKUP(G11,Actions,2,0)</f>
         <v>🔓🔊</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J11" s="52" t="str">
         <f aca="false">VLOOKUP(I11,Actions,2,0)</f>
         <v>📷🔊➜➜</v>
       </c>
       <c r="K11" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L11" s="49" t="str">
         <f aca="false">VLOOKUP(K11,Actions,2,0)</f>
         <v>💡💡</v>
       </c>
       <c r="M11" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N11" s="52" t="str">
         <f aca="false">VLOOKUP(M11,Actions,2,0)</f>
         <v>🔊🔊➜➜➜</v>
       </c>
       <c r="O11" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P11" s="52" t="str">
         <f aca="false">VLOOKUP(O11,Actions,2,0)</f>
@@ -5792,18 +5779,22 @@
         <v>Dash%n🔊➜➜/</v>
       </c>
       <c r="X11" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y11" s="49" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y11" s="49" t="inlineStr">
         <f aca="false">IF(X11="(none)","",VLOOKUP(X11,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z11" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA11" s="49" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA11" s="49" t="inlineStr">
         <f aca="false">IF(Z11="(none)","",VLOOKUP(Z11,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB11" s="43" t="n">
         <f aca="false">(LEN($W11)-LEN(SUBSTITUTE($W11,AB$1,"")))/LEN(AB$1)</f>
@@ -5838,16 +5829,16 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK11" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="AK11" s="79" t="s">
-        <v>224</v>
-      </c>
       <c r="AL11" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM11" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN11" s="48"/>
       <c r="AO11" s="48"/>
@@ -5862,7 +5853,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="56" t="n">
         <v>2</v>
@@ -5871,45 +5862,45 @@
         <v>2</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="58" t="str">
         <f aca="false">VLOOKUP(E12,Actions,2,0)</f>
         <v>💡💡</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" s="55" t="str">
         <f aca="false">VLOOKUP(G12,Actions,2,0)</f>
         <v>🔓👊🔊</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J12" s="58" t="str">
         <f aca="false">VLOOKUP(I12,Actions,2,0)</f>
         <v>🔓📷🔊🔊➜</v>
       </c>
       <c r="K12" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L12" s="55" t="str">
         <f aca="false">VLOOKUP(K12,Actions,2,0)</f>
         <v>👊📷🔊🔊➜</v>
       </c>
       <c r="M12" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" s="58" t="str">
         <f aca="false">VLOOKUP(M12,Actions,2,0)</f>
         <v>💰🔊</v>
       </c>
       <c r="O12" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P12" s="58" t="str">
         <f aca="false">VLOOKUP(O12,Actions,2,0)</f>
@@ -5944,18 +5935,22 @@
         <v>Study%n💡💡/</v>
       </c>
       <c r="X12" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y12" s="55" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y12" s="55" t="inlineStr">
         <f aca="false">IF(X12="(none)","",VLOOKUP(X12,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z12" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA12" s="55" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA12" s="55" t="inlineStr">
         <f aca="false">IF(Z12="(none)","",VLOOKUP(Z12,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB12" s="43" t="n">
         <f aca="false">(LEN($W12)-LEN(SUBSTITUTE($W12,AB$1,"")))/LEN(AB$1)</f>
@@ -5990,16 +5985,16 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK12" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL12" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="AK12" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL12" s="60" t="s">
-        <v>227</v>
-      </c>
       <c r="AM12" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN12" s="48"/>
       <c r="AO12" s="48"/>
@@ -6014,7 +6009,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="56" t="n">
         <v>2</v>
@@ -6023,45 +6018,45 @@
         <v>2</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13" s="58" t="str">
         <f aca="false">VLOOKUP(E13,Actions,2,0)</f>
         <v>🔓👊📷🔊🔊</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H13" s="55" t="str">
         <f aca="false">VLOOKUP(G13,Actions,2,0)</f>
         <v>🔓👊🔊🔊➜</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J13" s="58" t="str">
         <f aca="false">VLOOKUP(I13,Actions,2,0)</f>
         <v>🔓📷🔊🔊➜</v>
       </c>
       <c r="K13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L13" s="55" t="str">
         <f aca="false">VLOOKUP(K13,Actions,2,0)</f>
         <v>👊📷🔊🔊➜</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N13" s="58" t="str">
         <f aca="false">VLOOKUP(M13,Actions,2,0)</f>
         <v>💰🔊</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P13" s="58" t="str">
         <f aca="false">VLOOKUP(O13,Actions,2,0)</f>
@@ -6096,18 +6091,22 @@
         <v>Redirect%n🔓👊📷🔊🔊/</v>
       </c>
       <c r="X13" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y13" s="55" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y13" s="55" t="inlineStr">
         <f aca="false">IF(X13="(none)","",VLOOKUP(X13,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z13" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA13" s="55" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA13" s="55" t="inlineStr">
         <f aca="false">IF(Z13="(none)","",VLOOKUP(Z13,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB13" s="43" t="n">
         <f aca="false">(LEN($W13)-LEN(SUBSTITUTE($W13,AB$1,"")))/LEN(AB$1)</f>
@@ -6142,16 +6141,16 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK13" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL13" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM13" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN13" s="48"/>
       <c r="AO13" s="48"/>
@@ -6166,7 +6165,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="62" t="n">
         <v>2</v>
@@ -6175,45 +6174,45 @@
         <v>2</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="64" t="str">
         <f aca="false">VLOOKUP(E14,Actions,2,0)</f>
         <v>👊👊🔊</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" s="61" t="str">
         <f aca="false">VLOOKUP(G14,Actions,2,0)</f>
         <v>🔊🔊➜➜</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J14" s="64" t="str">
         <f aca="false">VLOOKUP(I14,Actions,2,0)</f>
         <v>👊👊🔊🔊🔊➜➜</v>
       </c>
       <c r="K14" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L14" s="61" t="str">
         <f aca="false">VLOOKUP(K14,Actions,2,0)</f>
         <v>🔊🔊➜➜</v>
       </c>
       <c r="M14" s="63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N14" s="64" t="str">
         <f aca="false">VLOOKUP(M14,Actions,2,0)</f>
         <v>🔓👊🔊🔊➜</v>
       </c>
       <c r="O14" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P14" s="64" t="str">
         <f aca="false">VLOOKUP(O14,Actions,2,0)</f>
@@ -6248,18 +6247,22 @@
         <v>Bash%n👊👊🔊/</v>
       </c>
       <c r="X14" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y14" s="61" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y14" s="61" t="inlineStr">
         <f aca="false">IF(X14="(none)","",VLOOKUP(X14,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z14" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA14" s="61" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA14" s="61" t="inlineStr">
         <f aca="false">IF(Z14="(none)","",VLOOKUP(Z14,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB14" s="43" t="n">
         <f aca="false">(LEN($W14)-LEN(SUBSTITUTE($W14,AB$1,"")))/LEN(AB$1)</f>
@@ -6294,16 +6297,16 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK14" s="66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL14" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM14" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN14" s="48"/>
       <c r="AO14" s="48"/>
@@ -6318,7 +6321,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="62" t="n">
         <v>2</v>
@@ -6327,45 +6330,45 @@
         <v>2</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="64" t="str">
         <f aca="false">VLOOKUP(E15,Actions,2,0)</f>
         <v>👊👊🔊</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="61" t="str">
         <f aca="false">VLOOKUP(G15,Actions,2,0)</f>
         <v>🔊🔊➜➜</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J15" s="64" t="str">
         <f aca="false">VLOOKUP(I15,Actions,2,0)</f>
         <v>🔓👊👊📷🔊⚠</v>
       </c>
       <c r="K15" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L15" s="61" t="str">
         <f aca="false">VLOOKUP(K15,Actions,2,0)</f>
         <v>🔊🔊➜➜</v>
       </c>
       <c r="M15" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N15" s="64" t="str">
         <f aca="false">VLOOKUP(M15,Actions,2,0)</f>
         <v>👊👊🔊</v>
       </c>
       <c r="O15" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P15" s="64" t="str">
         <f aca="false">VLOOKUP(O15,Actions,2,0)</f>
@@ -6400,18 +6403,22 @@
         <v>Bash%n👊👊🔊/</v>
       </c>
       <c r="X15" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y15" s="61" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y15" s="61" t="inlineStr">
         <f aca="false">IF(X15="(none)","",VLOOKUP(X15,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z15" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA15" s="61" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA15" s="61" t="inlineStr">
         <f aca="false">IF(Z15="(none)","",VLOOKUP(Z15,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB15" s="43" t="n">
         <f aca="false">(LEN($W15)-LEN(SUBSTITUTE($W15,AB$1,"")))/LEN(AB$1)</f>
@@ -6446,14 +6453,14 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK15" s="66"/>
       <c r="AL15" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM15" s="66" t="s">
         <v>233</v>
-      </c>
-      <c r="AM15" s="66" t="s">
-        <v>234</v>
       </c>
       <c r="AN15" s="48"/>
       <c r="AO15" s="48"/>
@@ -6468,7 +6475,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="68" t="n">
         <v>2</v>
@@ -6477,45 +6484,45 @@
         <v>2</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F16" s="70" t="str">
         <f aca="false">VLOOKUP(E16,Actions,2,0)</f>
         <v>🔓🔓🔊➜</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H16" s="67" t="str">
         <f aca="false">VLOOKUP(G16,Actions,2,0)</f>
         <v>💡💡🔊🔍</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J16" s="70" t="str">
         <f aca="false">VLOOKUP(I16,Actions,2,0)</f>
         <v>🔓💰</v>
       </c>
       <c r="K16" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L16" s="67" t="str">
         <f aca="false">VLOOKUP(K16,Actions,2,0)</f>
         <v>🔊🔊➜➜➜</v>
       </c>
       <c r="M16" s="69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N16" s="70" t="str">
         <f aca="false">VLOOKUP(M16,Actions,2,0)</f>
         <v>🔊➜➜</v>
       </c>
       <c r="O16" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P16" s="70" t="str">
         <f aca="false">VLOOKUP(O16,Actions,2,0)</f>
@@ -6550,18 +6557,22 @@
         <v>Rake%n🔓🔓🔊➜/</v>
       </c>
       <c r="X16" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y16" s="67" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y16" s="67" t="inlineStr">
         <f aca="false">IF(X16="(none)","",VLOOKUP(X16,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z16" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA16" s="67" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA16" s="67" t="inlineStr">
         <f aca="false">IF(Z16="(none)","",VLOOKUP(Z16,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB16" s="43" t="n">
         <f aca="false">(LEN($W16)-LEN(SUBSTITUTE($W16,AB$1,"")))/LEN(AB$1)</f>
@@ -6596,16 +6607,16 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK16" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="AK16" s="72" t="s">
-        <v>198</v>
-      </c>
       <c r="AL16" s="72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM16" s="72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN16" s="48"/>
       <c r="AO16" s="48"/>
@@ -6620,7 +6631,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="68" t="n">
         <v>2</v>
@@ -6629,45 +6640,45 @@
         <v>2</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F17" s="70" t="str">
         <f aca="false">VLOOKUP(E17,Actions,2,0)</f>
         <v>🔓🔓🔊➜</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H17" s="67" t="str">
         <f aca="false">VLOOKUP(G17,Actions,2,0)</f>
         <v>💡💡</v>
       </c>
       <c r="I17" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J17" s="70" t="str">
         <f aca="false">VLOOKUP(I17,Actions,2,0)</f>
         <v>🔓👊🔊</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L17" s="67" t="str">
         <f aca="false">VLOOKUP(K17,Actions,2,0)</f>
         <v>🔊🔊➜➜➜</v>
       </c>
       <c r="M17" s="69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N17" s="70" t="str">
         <f aca="false">VLOOKUP(M17,Actions,2,0)</f>
         <v>🔊➜➜</v>
       </c>
       <c r="O17" s="71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P17" s="70" t="str">
         <f aca="false">VLOOKUP(O17,Actions,2,0)</f>
@@ -6702,18 +6713,22 @@
         <v>Rake%n🔓🔓🔊➜/</v>
       </c>
       <c r="X17" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y17" s="67" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y17" s="67" t="inlineStr">
         <f aca="false">IF(X17="(none)","",VLOOKUP(X17,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z17" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA17" s="67" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA17" s="67" t="inlineStr">
         <f aca="false">IF(Z17="(none)","",VLOOKUP(Z17,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB17" s="43" t="n">
         <f aca="false">(LEN($W17)-LEN(SUBSTITUTE($W17,AB$1,"")))/LEN(AB$1)</f>
@@ -6748,16 +6763,16 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK17" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL17" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="AL17" s="72" t="s">
-        <v>240</v>
-      </c>
       <c r="AM17" s="72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN17" s="48"/>
       <c r="AO17" s="48"/>
@@ -6772,7 +6787,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="74" t="n">
         <v>2</v>
@@ -6781,45 +6796,45 @@
         <v>2</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18" s="76" t="str">
         <f aca="false">VLOOKUP(E18,Actions,2,0)</f>
         <v>📷📷🔊➜</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="73" t="str">
         <f aca="false">VLOOKUP(G18,Actions,2,0)</f>
         <v>🔊🔊➜➜➜</v>
       </c>
       <c r="I18" s="75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J18" s="76" t="str">
         <f aca="false">VLOOKUP(I18,Actions,2,0)</f>
         <v>📷🔊➜</v>
       </c>
       <c r="K18" s="77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" s="73" t="str">
         <f aca="false">VLOOKUP(K18,Actions,2,0)</f>
         <v>🔍🔍</v>
       </c>
       <c r="M18" s="75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N18" s="76" t="str">
         <f aca="false">VLOOKUP(M18,Actions,2,0)</f>
         <v>💡💡🔊🔍</v>
       </c>
       <c r="O18" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P18" s="76" t="str">
         <f aca="false">VLOOKUP(O18,Actions,2,0)</f>
@@ -6854,18 +6869,22 @@
         <v>Unplug%n📷📷🔊➜/</v>
       </c>
       <c r="X18" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y18" s="73" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y18" s="73" t="inlineStr">
         <f aca="false">IF(X18="(none)","",VLOOKUP(X18,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z18" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA18" s="73" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA18" s="73" t="inlineStr">
         <f aca="false">IF(Z18="(none)","",VLOOKUP(Z18,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB18" s="43" t="n">
         <f aca="false">(LEN($W18)-LEN(SUBSTITUTE($W18,AB$1,"")))/LEN(AB$1)</f>
@@ -6900,14 +6919,14 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK18" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL18" s="9"/>
       <c r="AM18" s="78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN18" s="48"/>
       <c r="AO18" s="48"/>
@@ -6922,7 +6941,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="74" t="n">
         <v>2</v>
@@ -6931,45 +6950,45 @@
         <v>2</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F19" s="76" t="str">
         <f aca="false">VLOOKUP(E19,Actions,2,0)</f>
         <v>📷📷🔊➜</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H19" s="73" t="str">
         <f aca="false">VLOOKUP(G19,Actions,2,0)</f>
         <v>🔊➜🔍</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J19" s="76" t="str">
         <f aca="false">VLOOKUP(I19,Actions,2,0)</f>
         <v>📷🔊➜</v>
       </c>
       <c r="K19" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L19" s="73" t="str">
         <f aca="false">VLOOKUP(K19,Actions,2,0)</f>
         <v>🔊➜🔍</v>
       </c>
       <c r="M19" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N19" s="76" t="str">
         <f aca="false">VLOOKUP(M19,Actions,2,0)</f>
         <v>💡💡</v>
       </c>
       <c r="O19" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P19" s="76" t="str">
         <f aca="false">VLOOKUP(O19,Actions,2,0)</f>
@@ -7004,18 +7023,22 @@
         <v>Unplug%n📷📷🔊➜/</v>
       </c>
       <c r="X19" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y19" s="73" t="str">
+        <v>208</v>
+      </c>
+      <c r="Y19" s="73" t="inlineStr">
         <f aca="false">IF(X19="(none)","",VLOOKUP(X19,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Z19" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA19" s="73" t="str">
+        <v>208</v>
+      </c>
+      <c r="AA19" s="73" t="inlineStr">
         <f aca="false">IF(Z19="(none)","",VLOOKUP(Z19,$A$2:$W$19,23,0))</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AB19" s="43" t="n">
         <f aca="false">(LEN($W19)-LEN(SUBSTITUTE($W19,AB$1,"")))/LEN(AB$1)</f>
@@ -7050,16 +7073,16 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK19" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="AK19" s="78" t="s">
-        <v>204</v>
-      </c>
       <c r="AL19" s="78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM19" s="78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN19" s="48"/>
       <c r="AO19" s="48"/>
@@ -7174,16 +7197,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="D1" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="E1" s="87" t="s">
         <v>246</v>
-      </c>
-      <c r="E1" s="87" t="s">
-        <v>247</v>
       </c>
       <c r="F1" s="87"/>
       <c r="G1" s="87"/>
@@ -7209,19 +7232,19 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="89" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -7247,19 +7270,19 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="89" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -7285,19 +7308,19 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="89" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -7323,19 +7346,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="89" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -7361,19 +7384,19 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" s="89" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -7399,19 +7422,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="89" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -7437,19 +7460,19 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="89" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -7475,19 +7498,19 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="89" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -7513,19 +7536,19 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="89" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -7551,19 +7574,19 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="89" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -7589,19 +7612,19 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="89" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -7627,19 +7650,19 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13" s="89" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -7665,19 +7688,19 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="89" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -7703,19 +7726,19 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15" s="89" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -7741,19 +7764,19 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B16" s="89" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7779,19 +7802,19 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B17" s="89" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -7817,19 +7840,19 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="89" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -7855,19 +7878,19 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" s="89" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -7893,19 +7916,19 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="89" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>294</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -7931,19 +7954,19 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="89" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -7969,19 +7992,19 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B22" s="89" t="n">
         <v>21</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -8007,19 +8030,19 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B23" s="89" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -8045,19 +8068,19 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -8083,19 +8106,19 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="D25" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -8158,16 +8181,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="E1" s="87" t="s">
         <v>246</v>
-      </c>
-      <c r="E1" s="87" t="s">
-        <v>247</v>
       </c>
       <c r="F1" s="87"/>
       <c r="G1" s="87"/>
@@ -8193,19 +8216,19 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" s="89" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -8231,19 +8254,19 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B3" s="89" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -8269,19 +8292,19 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="89" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -8307,7 +8330,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="89" t="n">
         <v>1</v>
@@ -8339,14 +8362,14 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="89" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -8373,19 +8396,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7" s="89" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -8448,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="87" t="s">
         <v>5</v>
@@ -8457,10 +8480,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
@@ -8485,17 +8508,17 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="89" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -8521,20 +8544,20 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" s="89" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="91" t="s">
         <v>331</v>
-      </c>
-      <c r="F3" s="91" t="s">
-        <v>332</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -8559,20 +8582,20 @@
     </row>
     <row r="4" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="89" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="91" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -8597,20 +8620,20 @@
     </row>
     <row r="5" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" s="89" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -8635,17 +8658,17 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" s="89" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -8671,20 +8694,20 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7" s="89" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="91" t="s">
         <v>331</v>
-      </c>
-      <c r="F7" s="91" t="s">
-        <v>332</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -8740,10 +8763,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -8772,10 +8795,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -8804,10 +8827,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="92"/>
@@ -8836,10 +8859,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="92"/>
@@ -8868,10 +8891,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="92"/>
@@ -8900,10 +8923,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -8932,10 +8955,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -8964,10 +8987,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8996,10 +9019,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9028,10 +9051,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>352</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -9093,16 +9116,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="C1" s="87" t="s">
         <v>354</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="D1" s="87" t="s">
         <v>355</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>356</v>
       </c>
       <c r="E1" s="87"/>
       <c r="F1" s="87"/>
@@ -9129,13 +9152,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>359</v>
       </c>
       <c r="D2" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A2) + COUNTIF(Skills!I:I,A2) + COUNTIF(Skills!K:K,A2) + COUNTIF(Skills!M:M,A2) + COUNTIF(Skills!O:O,A2)</f>
@@ -9166,13 +9189,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A3) + COUNTIF(Skills!I:I,A3) + COUNTIF(Skills!K:K,A3) + COUNTIF(Skills!M:M,A3) + COUNTIF(Skills!O:O,A3)</f>
@@ -9203,13 +9226,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A4) + COUNTIF(Skills!I:I,A4) + COUNTIF(Skills!K:K,A4) + COUNTIF(Skills!M:M,A4) + COUNTIF(Skills!O:O,A4)</f>
@@ -9240,13 +9263,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A5) + COUNTIF(Skills!I:I,A5) + COUNTIF(Skills!K:K,A5) + COUNTIF(Skills!M:M,A5) + COUNTIF(Skills!O:O,A5)</f>
@@ -9277,13 +9300,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D6" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A6) + COUNTIF(Skills!I:I,A6) + COUNTIF(Skills!K:K,A6) + COUNTIF(Skills!M:M,A6) + COUNTIF(Skills!O:O,A6)</f>
@@ -9314,13 +9337,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D7" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A7) + COUNTIF(Skills!I:I,A7) + COUNTIF(Skills!K:K,A7) + COUNTIF(Skills!M:M,A7) + COUNTIF(Skills!O:O,A7)</f>
@@ -9351,13 +9374,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="D8" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A8) + COUNTIF(Skills!I:I,A8) + COUNTIF(Skills!K:K,A8) + COUNTIF(Skills!M:M,A8) + COUNTIF(Skills!O:O,A8)</f>
@@ -9388,13 +9411,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D9" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A9) + COUNTIF(Skills!I:I,A9) + COUNTIF(Skills!K:K,A9) + COUNTIF(Skills!M:M,A9) + COUNTIF(Skills!O:O,A9)</f>
@@ -9425,13 +9448,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D10" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A10) + COUNTIF(Skills!I:I,A10) + COUNTIF(Skills!K:K,A10) + COUNTIF(Skills!M:M,A10) + COUNTIF(Skills!O:O,A10)</f>
@@ -9462,13 +9485,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D11" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A11) + COUNTIF(Skills!I:I,A11) + COUNTIF(Skills!K:K,A11) + COUNTIF(Skills!M:M,A11) + COUNTIF(Skills!O:O,A11)</f>
@@ -9499,13 +9522,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A12) + COUNTIF(Skills!I:I,A12) + COUNTIF(Skills!K:K,A12) + COUNTIF(Skills!M:M,A12) + COUNTIF(Skills!O:O,A12)</f>
@@ -9536,13 +9559,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>372</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D13" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A13) + COUNTIF(Skills!I:I,A13) + COUNTIF(Skills!K:K,A13) + COUNTIF(Skills!M:M,A13) + COUNTIF(Skills!O:O,A13)</f>
@@ -9573,13 +9596,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D14" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A14) + COUNTIF(Skills!I:I,A14) + COUNTIF(Skills!K:K,A14) + COUNTIF(Skills!M:M,A14) + COUNTIF(Skills!O:O,A14)</f>
@@ -9610,10 +9633,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="89" t="str">
@@ -9645,10 +9668,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>4</v>
@@ -9682,10 +9705,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>376</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>377</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>4</v>
@@ -9719,10 +9742,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>4</v>
@@ -9756,10 +9779,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>4</v>
@@ -9793,10 +9816,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>4</v>
@@ -9830,13 +9853,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A21) + COUNTIF(Skills!I:I,A21) + COUNTIF(Skills!K:K,A21) + COUNTIF(Skills!M:M,A21) + COUNTIF(Skills!O:O,A21)</f>
@@ -9867,13 +9890,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A22) + COUNTIF(Skills!I:I,A22) + COUNTIF(Skills!K:K,A22) + COUNTIF(Skills!M:M,A22) + COUNTIF(Skills!O:O,A22)</f>
@@ -9904,13 +9927,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="D23" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A23) + COUNTIF(Skills!I:I,A23) + COUNTIF(Skills!K:K,A23) + COUNTIF(Skills!M:M,A23) + COUNTIF(Skills!O:O,A23)</f>
@@ -9941,13 +9964,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D24" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A24) + COUNTIF(Skills!I:I,A24) + COUNTIF(Skills!K:K,A24) + COUNTIF(Skills!M:M,A24) + COUNTIF(Skills!O:O,A24)</f>
@@ -9978,13 +10001,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D25" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A25) + COUNTIF(Skills!I:I,A25) + COUNTIF(Skills!K:K,A25) + COUNTIF(Skills!M:M,A25) + COUNTIF(Skills!O:O,A25)</f>
@@ -10015,13 +10038,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D26" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A26) + COUNTIF(Skills!I:I,A26) + COUNTIF(Skills!K:K,A26) + COUNTIF(Skills!M:M,A26) + COUNTIF(Skills!O:O,A26)</f>
@@ -10052,13 +10075,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>389</v>
-      </c>
       <c r="C27" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D27" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A27) + COUNTIF(Skills!I:I,A27) + COUNTIF(Skills!K:K,A27) + COUNTIF(Skills!M:M,A27) + COUNTIF(Skills!O:O,A27)</f>
@@ -10089,13 +10112,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D28" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A28) + COUNTIF(Skills!I:I,A28) + COUNTIF(Skills!K:K,A28) + COUNTIF(Skills!M:M,A28) + COUNTIF(Skills!O:O,A28)</f>
@@ -10126,13 +10149,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>392</v>
-      </c>
       <c r="C29" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D29" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A29) + COUNTIF(Skills!I:I,A29) + COUNTIF(Skills!K:K,A29) + COUNTIF(Skills!M:M,A29) + COUNTIF(Skills!O:O,A29)</f>
@@ -10163,13 +10186,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A30) + COUNTIF(Skills!I:I,A30) + COUNTIF(Skills!K:K,A30) + COUNTIF(Skills!M:M,A30) + COUNTIF(Skills!O:O,A30)</f>
@@ -10200,13 +10223,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>395</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A31) + COUNTIF(Skills!I:I,A31) + COUNTIF(Skills!K:K,A31) + COUNTIF(Skills!M:M,A31) + COUNTIF(Skills!O:O,A31)</f>
@@ -10237,13 +10260,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D32" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A32) + COUNTIF(Skills!I:I,A32) + COUNTIF(Skills!K:K,A32) + COUNTIF(Skills!M:M,A32) + COUNTIF(Skills!O:O,A32)</f>
@@ -10274,13 +10297,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A33) + COUNTIF(Skills!I:I,A33) + COUNTIF(Skills!K:K,A33) + COUNTIF(Skills!M:M,A33) + COUNTIF(Skills!O:O,A33)</f>
@@ -10311,13 +10334,13 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D34" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A34) + COUNTIF(Skills!I:I,A34) + COUNTIF(Skills!K:K,A34) + COUNTIF(Skills!M:M,A34) + COUNTIF(Skills!O:O,A34)</f>
@@ -10348,13 +10371,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>399</v>
-      </c>
       <c r="C35" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D35" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A35) + COUNTIF(Skills!I:I,A35) + COUNTIF(Skills!K:K,A35) + COUNTIF(Skills!M:M,A35) + COUNTIF(Skills!O:O,A35)</f>
@@ -10385,13 +10408,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>401</v>
-      </c>
       <c r="C36" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D36" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A36) + COUNTIF(Skills!I:I,A36) + COUNTIF(Skills!K:K,A36) + COUNTIF(Skills!M:M,A36) + COUNTIF(Skills!O:O,A36)</f>
@@ -10422,10 +10445,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="89" t="str">
@@ -10457,13 +10480,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D38" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A38) + COUNTIF(Skills!I:I,A38) + COUNTIF(Skills!K:K,A38) + COUNTIF(Skills!M:M,A38) + COUNTIF(Skills!O:O,A38)</f>
@@ -10494,13 +10517,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D39" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A39) + COUNTIF(Skills!I:I,A39) + COUNTIF(Skills!K:K,A39) + COUNTIF(Skills!M:M,A39) + COUNTIF(Skills!O:O,A39)</f>
@@ -10531,13 +10554,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A40) + COUNTIF(Skills!I:I,A40) + COUNTIF(Skills!K:K,A40) + COUNTIF(Skills!M:M,A40) + COUNTIF(Skills!O:O,A40)</f>
@@ -10568,13 +10591,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>407</v>
-      </c>
       <c r="C41" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A41) + COUNTIF(Skills!I:I,A41) + COUNTIF(Skills!K:K,A41) + COUNTIF(Skills!M:M,A41) + COUNTIF(Skills!O:O,A41)</f>
@@ -10605,13 +10628,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D42" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A42) + COUNTIF(Skills!I:I,A42) + COUNTIF(Skills!K:K,A42) + COUNTIF(Skills!M:M,A42) + COUNTIF(Skills!O:O,A42)</f>
@@ -10642,13 +10665,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D43" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A43) + COUNTIF(Skills!I:I,A43) + COUNTIF(Skills!K:K,A43) + COUNTIF(Skills!M:M,A43) + COUNTIF(Skills!O:O,A43)</f>
@@ -10679,13 +10702,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="D44" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A44) + COUNTIF(Skills!I:I,A44) + COUNTIF(Skills!K:K,A44) + COUNTIF(Skills!M:M,A44) + COUNTIF(Skills!O:O,A44)</f>
@@ -10716,13 +10739,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D45" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A45) + COUNTIF(Skills!I:I,A45) + COUNTIF(Skills!K:K,A45) + COUNTIF(Skills!M:M,A45) + COUNTIF(Skills!O:O,A45)</f>
@@ -10753,13 +10776,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D46" s="89" t="str">
         <f aca="false">COUNTIF(Skills!E:E,A46) + COUNTIF(Skills!I:I,A46) + COUNTIF(Skills!K:K,A46) + COUNTIF(Skills!M:M,A46) + COUNTIF(Skills!O:O,A46)</f>
@@ -10790,10 +10813,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="89" t="str">
@@ -11033,10 +11056,10 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C7" s="89" t="n">
         <v>2</v>
@@ -11045,51 +11068,49 @@
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F7" s="89" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="G7" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="H7" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="I7" s="89" t="s">
+        <v>416</v>
+      </c>
+      <c r="J7" s="89" t="s">
         <v>418</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="K7" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="L7" s="89" t="s">
+        <v>418</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>416</v>
+      </c>
+      <c r="N7" s="89" t="s">
         <v>419</v>
       </c>
-      <c r="K7" s="89" t="s">
-        <v>418</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>419</v>
       </c>
-      <c r="M7" s="89" t="s">
-        <v>417</v>
-      </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
         <v>420</v>
       </c>
-      <c r="O7" s="89" t="s">
-        <v>420</v>
-      </c>
-      <c r="P7" s="89" t="s">
+      <c r="Q7" s="89" t="s">
         <v>421</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>422</v>
       </c>
       <c r="R7" s="92" t="str">
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F7 &amp; CHAR(10)</f>
         <v>1: BAM! 🔓🔊🔊 ➜</v>
       </c>
-      <c r="S7" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S7" s="92"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -11100,10 +11121,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C8" s="89" t="n">
         <v>2</v>
@@ -11112,51 +11133,49 @@
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="89" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="G8" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="G8" s="89" t="s">
+      <c r="H8" s="89" t="s">
         <v>426</v>
       </c>
-      <c r="H8" s="89" t="s">
-        <v>427</v>
-      </c>
       <c r="I8" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="J8" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="K8" s="89" t="s">
         <v>426</v>
       </c>
-      <c r="K8" s="89" t="s">
-        <v>427</v>
-      </c>
       <c r="L8" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="M8" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="N8" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="O8" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="P8" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="M8" s="89" t="s">
-        <v>427</v>
-      </c>
-      <c r="N8" s="89" t="s">
-        <v>427</v>
-      </c>
-      <c r="O8" s="89" t="s">
-        <v>427</v>
-      </c>
-      <c r="P8" s="89" t="s">
-        <v>426</v>
-      </c>
       <c r="Q8" s="89" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R8" s="92" t="str">
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F8 &amp; CHAR(10)</f>
         <v>1: OOF! 🔊</v>
       </c>
-      <c r="S8" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S8" s="92"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -11167,10 +11186,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C9" s="89" t="n">
         <v>2</v>
@@ -11179,10 +11198,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F9" s="89" t="s">
         <v>429</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>430</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="89"/>
@@ -11199,9 +11218,7 @@
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F9 &amp; CHAR(10)</f>
         <v>1: BYPASS! 🔓🔓➜</v>
       </c>
-      <c r="S9" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S9" s="92"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -11212,10 +11229,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C10" s="89" t="n">
         <v>2</v>
@@ -11224,7 +11241,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F10" s="89"/>
       <c r="G10" s="89"/>
@@ -11242,9 +11259,7 @@
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F10 &amp; CHAR(10)</f>
         <v>1:</v>
       </c>
-      <c r="S10" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S10" s="92"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -11255,10 +11270,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="C11" s="89" t="n">
         <v>2</v>
@@ -11267,13 +11282,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F11" s="89" t="s">
         <v>435</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="G11" s="89" t="s">
         <v>436</v>
-      </c>
-      <c r="G11" s="89" t="s">
-        <v>437</v>
       </c>
       <c r="H11" s="89"/>
       <c r="I11" s="89"/>
@@ -11289,9 +11304,7 @@
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F11 &amp; CHAR(10)</f>
         <v>1: BRIBE! 👊 -$1k</v>
       </c>
-      <c r="S11" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S11" s="92"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -11302,10 +11315,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C12" s="89" t="n">
         <v>2</v>
@@ -11314,7 +11327,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F12" s="89"/>
       <c r="G12" s="89"/>
@@ -11332,9 +11345,7 @@
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F12 &amp; CHAR(10)</f>
         <v>1:</v>
       </c>
-      <c r="S12" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S12" s="92"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -11345,10 +11356,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>441</v>
       </c>
       <c r="C13" s="89" t="n">
         <v>2</v>
@@ -11357,51 +11368,49 @@
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F13" s="89" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="G13" s="89" t="s">
         <v>443</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="H13" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="H13" s="89" t="s">
+      <c r="I13" s="89" t="s">
+        <v>443</v>
+      </c>
+      <c r="J13" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="K13" s="89" t="s">
         <v>445</v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="L13" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="J13" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="K13" s="89" t="s">
+      <c r="M13" s="89" t="s">
         <v>446</v>
       </c>
-      <c r="L13" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="M13" s="89" t="s">
-        <v>447</v>
-      </c>
       <c r="N13" s="89" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O13" s="89" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P13" s="89" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q13" s="89" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R13" s="92" t="str">
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F13 &amp; CHAR(10)</f>
         <v>1: SURPRISE. 👊➜</v>
       </c>
-      <c r="S13" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S13" s="92"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -11412,10 +11421,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C14" s="89" t="n">
         <v>2</v>
@@ -11425,40 +11434,40 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="G14" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="H14" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="G14" s="89" t="s">
+      <c r="I14" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="J14" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="K14" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="L14" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="H14" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="I14" s="89" t="s">
+      <c r="M14" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="N14" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="O14" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="J14" s="89" t="s">
-        <v>449</v>
-      </c>
-      <c r="K14" s="89" t="s">
-        <v>449</v>
-      </c>
-      <c r="L14" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="M14" s="89" t="s">
-        <v>449</v>
-      </c>
-      <c r="N14" s="89" t="s">
-        <v>449</v>
-      </c>
-      <c r="O14" s="89" t="s">
-        <v>450</v>
-      </c>
       <c r="P14" s="89" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="89" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R14" s="92" t="str">
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F14 &amp; CHAR(10)</f>
@@ -11475,10 +11484,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" s="89" t="n">
         <v>2</v>
@@ -11488,40 +11497,40 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>446</v>
+      </c>
+      <c r="H15" s="89" t="s">
         <v>452</v>
       </c>
-      <c r="G15" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="H15" s="89" t="s">
+      <c r="I15" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J15" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="K15" s="89" t="s">
+        <v>446</v>
+      </c>
+      <c r="L15" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="M15" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="N15" s="89" t="s">
         <v>453</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="O15" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="P15" s="89" t="s">
         <v>453</v>
       </c>
-      <c r="J15" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="K15" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="L15" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="M15" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="N15" s="89" t="s">
-        <v>454</v>
-      </c>
-      <c r="O15" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="P15" s="89" t="s">
-        <v>454</v>
-      </c>
       <c r="Q15" s="89" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R15" s="92" t="str">
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F15 &amp; CHAR(10)</f>
@@ -11538,10 +11547,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C16" s="89" t="n">
         <v>2</v>
@@ -11566,9 +11575,7 @@
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F16 &amp; CHAR(10)</f>
         <v>1:</v>
       </c>
-      <c r="S16" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S16" s="92"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -11579,10 +11586,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C17" s="89" t="n">
         <v>2</v>
@@ -11607,9 +11614,7 @@
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F17 &amp; CHAR(10)</f>
         <v>1:</v>
       </c>
-      <c r="S17" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S17" s="92"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -11620,10 +11625,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C18" s="89" t="n">
         <v>2</v>
@@ -11632,7 +11637,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F18" s="89"/>
       <c r="G18" s="89"/>
@@ -11651,7 +11656,7 @@
         <v>1:</v>
       </c>
       <c r="S18" s="92" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -11663,10 +11668,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C19" s="89" t="n">
         <v>2</v>
@@ -11675,51 +11680,49 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F19" s="89" t="s">
         <v>459</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="G19" s="89" t="s">
         <v>460</v>
       </c>
-      <c r="G19" s="89" t="s">
+      <c r="H19" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="I19" s="89" t="s">
         <v>461</v>
       </c>
-      <c r="H19" s="89" t="s">
+      <c r="J19" s="89" t="s">
+        <v>462</v>
+      </c>
+      <c r="K19" s="89" t="s">
+        <v>463</v>
+      </c>
+      <c r="L19" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="M19" s="89" t="s">
+        <v>461</v>
+      </c>
+      <c r="N19" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="O19" s="89" t="s">
+        <v>463</v>
+      </c>
+      <c r="P19" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q19" s="89" t="s">
         <v>460</v>
-      </c>
-      <c r="I19" s="89" t="s">
-        <v>462</v>
-      </c>
-      <c r="J19" s="89" t="s">
-        <v>463</v>
-      </c>
-      <c r="K19" s="89" t="s">
-        <v>464</v>
-      </c>
-      <c r="L19" s="89" t="s">
-        <v>460</v>
-      </c>
-      <c r="M19" s="89" t="s">
-        <v>462</v>
-      </c>
-      <c r="N19" s="89" t="s">
-        <v>460</v>
-      </c>
-      <c r="O19" s="89" t="s">
-        <v>464</v>
-      </c>
-      <c r="P19" s="89" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q19" s="89" t="s">
-        <v>461</v>
       </c>
       <c r="R19" s="92" t="str">
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F19 &amp; CHAR(10)</f>
         <v>1: WALK. ➜</v>
       </c>
-      <c r="S19" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S19" s="92"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -11730,10 +11733,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C20" s="89" t="n">
         <v>2</v>
@@ -11742,51 +11745,49 @@
         <v>1</v>
       </c>
       <c r="E20" s="92" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" s="89" t="s">
         <v>466</v>
       </c>
-      <c r="F20" s="89" t="s">
-        <v>467</v>
-      </c>
       <c r="G20" s="89" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K20" s="89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L20" s="89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M20" s="89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N20" s="89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O20" s="89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P20" s="89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q20" s="89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R20" s="92" t="str">
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F20 &amp; CHAR(10)</f>
         <v>1: HESITATE.💡</v>
       </c>
-      <c r="S20" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S20" s="92"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
@@ -11797,10 +11798,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C21" s="89" t="n">
         <v>2</v>
@@ -11810,48 +11811,46 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G21" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H21" s="89" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I21" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K21" s="89" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L21" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M21" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N21" s="89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O21" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P21" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q21" s="89" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R21" s="92" t="str">
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F21 &amp; CHAR(10)</f>
         <v>1: SHUFFLE! ➜🔊</v>
       </c>
-      <c r="S21" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S21" s="92"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -11862,10 +11861,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C22" s="89" t="n">
         <v>2</v>
@@ -11891,7 +11890,7 @@
         <v>1:</v>
       </c>
       <c r="S22" s="92" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -11903,10 +11902,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C23" s="89" t="n">
         <v>2</v>
@@ -11915,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F23" s="89"/>
       <c r="G23" s="89"/>
@@ -11934,7 +11933,7 @@
         <v>1:</v>
       </c>
       <c r="S23" s="92" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -11946,10 +11945,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C24" s="89" t="n">
         <v>2</v>
@@ -11958,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F24" s="89"/>
       <c r="G24" s="89"/>
@@ -11977,7 +11976,7 @@
         <v>1:</v>
       </c>
       <c r="S24" s="92" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
@@ -11989,10 +11988,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C25" s="89" t="n">
         <v>2</v>
@@ -12001,7 +12000,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F25" s="89"/>
       <c r="G25" s="89"/>
@@ -12019,9 +12018,7 @@
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F25 &amp; CHAR(10)</f>
         <v>1:</v>
       </c>
-      <c r="S25" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S25" s="92"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -12032,10 +12029,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C26" s="89" t="n">
         <v>4</v>
@@ -12044,51 +12041,49 @@
         <v>0</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F26" s="89" t="s">
         <v>479</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="G26" s="89" t="s">
         <v>480</v>
       </c>
-      <c r="G26" s="89" t="s">
+      <c r="H26" s="89" t="s">
         <v>481</v>
       </c>
-      <c r="H26" s="89" t="s">
+      <c r="I26" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="I26" s="89" t="s">
+      <c r="J26" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="K26" s="89" t="s">
         <v>483</v>
       </c>
-      <c r="J26" s="89" t="s">
-        <v>481</v>
-      </c>
-      <c r="K26" s="89" t="s">
+      <c r="L26" s="89" t="s">
+        <v>479</v>
+      </c>
+      <c r="M26" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="N26" s="89" t="s">
         <v>484</v>
       </c>
-      <c r="L26" s="89" t="s">
+      <c r="O26" s="89" t="s">
         <v>480</v>
       </c>
-      <c r="M26" s="89" t="s">
-        <v>481</v>
-      </c>
-      <c r="N26" s="89" t="s">
+      <c r="P26" s="89" t="s">
         <v>485</v>
       </c>
-      <c r="O26" s="89" t="s">
-        <v>481</v>
-      </c>
-      <c r="P26" s="89" t="s">
-        <v>486</v>
-      </c>
       <c r="Q26" s="89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R26" s="92" t="str">
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F26 &amp; CHAR(10)</f>
         <v>1: Zzzt. 📷</v>
       </c>
-      <c r="S26" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S26" s="92"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -12099,10 +12094,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C27" s="89" t="n">
         <v>2</v>
@@ -12112,7 +12107,7 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G27" s="89"/>
       <c r="H27" s="89"/>
@@ -12129,9 +12124,7 @@
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F27 &amp; CHAR(10)</f>
         <v>1: YOINK! +$1k</v>
       </c>
-      <c r="S27" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S27" s="92"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -12142,10 +12135,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C28" s="89" t="n">
         <v>2</v>
@@ -12154,7 +12147,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F28" s="89"/>
       <c r="G28" s="89"/>
@@ -12172,9 +12165,7 @@
         <f aca="false">Skills!Q$1 &amp; ": " &amp; F28 &amp; CHAR(10)</f>
         <v>1:</v>
       </c>
-      <c r="S28" s="92" t="s">
-        <v>25</v>
-      </c>
+      <c r="S28" s="92"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
@@ -12185,10 +12176,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C29" s="89" t="n">
         <v>2</v>
@@ -12197,7 +12188,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F29" s="89"/>
       <c r="G29" s="89"/>
@@ -12216,7 +12207,7 @@
         <v>1:</v>
       </c>
       <c r="S29" s="92" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -12228,10 +12219,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C30" s="89" t="n">
         <v>2</v>
@@ -12240,7 +12231,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F30" s="89"/>
       <c r="G30" s="89"/>
@@ -12259,7 +12250,7 @@
         <v>1:</v>
       </c>
       <c r="S30" s="92" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
@@ -12289,7 +12280,7 @@
       <c r="Q31" s="89"/>
       <c r="R31" s="92"/>
       <c r="S31" s="92" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -12329,7 +12320,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="87" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -12359,7 +12350,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -12389,7 +12380,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -12419,7 +12410,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -12449,7 +12440,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -12479,7 +12470,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -12509,7 +12500,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -12539,7 +12530,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -12569,7 +12560,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -12599,7 +12590,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="72" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -12629,7 +12620,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -12659,7 +12650,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -12689,7 +12680,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="78" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -12747,7 +12738,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -12777,7 +12768,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48" s="9" t="str">
         <f aca="false">VLOOKUP(A48,Actions,2,0)</f>
@@ -12810,7 +12801,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B49" s="9" t="str">
         <f aca="false">VLOOKUP(A49,Actions,2,0)</f>
@@ -12843,7 +12834,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B50" s="9" t="str">
         <f aca="false">VLOOKUP(A50,Actions,2,0)</f>
@@ -12876,7 +12867,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" s="9" t="str">
         <f aca="false">VLOOKUP(A51,Actions,2,0)</f>
@@ -12909,7 +12900,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" s="9" t="str">
         <f aca="false">VLOOKUP(A52,Actions,2,0)</f>
@@ -12942,7 +12933,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B53" s="9" t="str">
         <f aca="false">VLOOKUP(A53,Actions,2,0)</f>
@@ -12975,7 +12966,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B54" s="9" t="str">
         <f aca="false">VLOOKUP(A54,Actions,2,0)</f>
@@ -13008,7 +12999,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="9" t="str">
         <f aca="false">VLOOKUP(A55,Actions,2,0)</f>
@@ -13069,7 +13060,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="87" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -13099,7 +13090,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B58" s="9" t="str">
         <f aca="false">VLOOKUP(A58,Actions,2,0)</f>
@@ -13132,7 +13123,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" s="9" t="str">
         <f aca="false">VLOOKUP(A59,Actions,2,0)</f>
@@ -13165,7 +13156,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B60" s="9" t="str">
         <f aca="false">VLOOKUP(A60,Actions,2,0)</f>
@@ -13330,13 +13321,13 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="87" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" s="87" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="G1" s="87" t="s">
         <v>503</v>
-      </c>
-      <c r="G1" s="87" t="s">
-        <v>504</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -13360,25 +13351,25 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="92" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B2" s="92" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="92" t="s">
+        <v>505</v>
+      </c>
+      <c r="E2" s="92" t="s">
         <v>506</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="F2" s="92" t="s">
         <v>507</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="G2" s="92" t="s">
         <v>508</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>509</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -13402,23 +13393,23 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="92" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>510</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="C3" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="C3" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="92" t="s">
+      <c r="E3" s="92" t="s">
         <v>512</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>513</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -13442,25 +13433,25 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="92" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="92" t="s">
         <v>515</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="92" t="s">
+      <c r="E4" s="92" t="s">
         <v>516</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="F4" s="92" t="s">
         <v>517</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="G4" s="92" t="s">
         <v>518</v>
-      </c>
-      <c r="G4" s="92" t="s">
-        <v>519</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -13484,19 +13475,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="92" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="92" t="s">
+      <c r="E5" s="92" t="s">
         <v>521</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>522</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -13522,25 +13513,25 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="92" t="s">
+        <v>522</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="92" t="s">
         <v>523</v>
       </c>
-      <c r="B6" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="92" t="s">
+      <c r="E6" s="92" t="s">
         <v>524</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="F6" s="92" t="s">
         <v>525</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="G6" s="92" t="s">
         <v>526</v>
-      </c>
-      <c r="G6" s="92" t="s">
-        <v>527</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -13564,25 +13555,25 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="92" t="s">
+        <v>527</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>528</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="C7" s="92" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>433</v>
-      </c>
-      <c r="D7" s="92" t="s">
+      <c r="E7" s="92" t="s">
         <v>530</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="F7" s="92" t="s">
         <v>531</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="G7" s="92" t="s">
         <v>532</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>533</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -13746,7 +13737,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -13776,7 +13767,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -13806,7 +13797,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -13836,7 +13827,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -13866,7 +13857,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -13896,7 +13887,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -13926,7 +13917,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -13956,7 +13947,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -13986,7 +13977,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -14016,7 +14007,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -14046,7 +14037,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
